--- a/Apollo.xlsx
+++ b/Apollo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,11 +494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120246440"/>
-        <c:axId val="2107574632"/>
+        <c:axId val="2126831608"/>
+        <c:axId val="2119820040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120246440"/>
+        <c:axId val="2126831608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107574632"/>
+        <c:crossAx val="2119820040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -515,7 +515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107574632"/>
+        <c:axId val="2119820040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120246440"/>
+        <c:crossAx val="2126831608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,11 +752,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120480104"/>
-        <c:axId val="2107481384"/>
+        <c:axId val="2123611944"/>
+        <c:axId val="2072597080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120480104"/>
+        <c:axId val="2123611944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107481384"/>
+        <c:crossAx val="2072597080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107481384"/>
+        <c:axId val="2072597080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120480104"/>
+        <c:crossAx val="2123611944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,11 +1168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107466504"/>
-        <c:axId val="2107585016"/>
+        <c:axId val="2072922600"/>
+        <c:axId val="2124188392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107466504"/>
+        <c:axId val="2072922600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107585016"/>
+        <c:crossAx val="2124188392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107585016"/>
+        <c:axId val="2124188392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107466504"/>
+        <c:crossAx val="2072922600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="R143" workbookViewId="0">
+      <selection activeCell="AG150" sqref="AG150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
